--- a/result1_2.xlsx
+++ b/result1_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2024\C题乡村农作物种植策略优化\2024-8-28-1 C题(蔡志杰)\附件3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xaz33\Desktop\Coding\git\CUMCM-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4918CB-6CC9-4B1F-A057-F99BB6F2DB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" tabRatio="537"/>
+    <workbookView xWindow="-108" yWindow="21492" windowWidth="34776" windowHeight="10584" tabRatio="537" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="104">
   <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,11 +453,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -933,23 +942,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AS87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.265625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="6" t="s">
         <v>95</v>
@@ -1021,7 +1032,7 @@
         <v>75</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="Z1" s="13" t="s">
         <v>77</v>
@@ -1042,7 +1053,7 @@
         <v>82</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AG1" s="13" t="s">
         <v>84</v>
@@ -1078,14 +1089,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1128,12 +1141,14 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1176,12 +1191,14 @@
       <c r="AQ3" s="9"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1224,12 +1241,14 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -1272,12 +1291,14 @@
       <c r="AQ5" s="9"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1320,12 +1341,14 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -1368,12 +1391,14 @@
       <c r="AQ7" s="9"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1416,12 +1441,14 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1464,12 +1491,14 @@
       <c r="AQ9" s="9"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1512,12 +1541,14 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9">
+        <v>9</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1560,12 +1591,14 @@
       <c r="AQ11" s="9"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>10</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1608,12 +1641,14 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <v>11</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1656,12 +1691,14 @@
       <c r="AQ13" s="9"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8">
+        <v>12</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1704,12 +1741,14 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9">
+        <v>13</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1752,12 +1791,14 @@
       <c r="AQ15" s="9"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8">
+        <v>14</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1800,12 +1841,14 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9">
+        <v>15</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1848,12 +1891,14 @@
       <c r="AQ17" s="9"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8">
+        <v>16</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1896,12 +1941,14 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9">
+        <v>17</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -1944,12 +1991,14 @@
       <c r="AQ19" s="9"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8">
+        <v>18</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1992,12 +2041,14 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9">
+        <v>19</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -2040,12 +2091,14 @@
       <c r="AQ21" s="9"/>
       <c r="AS21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8">
+        <v>20</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -2088,12 +2141,14 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9">
+        <v>21</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2136,12 +2191,14 @@
       <c r="AQ23" s="9"/>
       <c r="AS23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8">
+        <v>22</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2184,12 +2241,14 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9">
+        <v>23</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2232,12 +2291,14 @@
       <c r="AQ25" s="9"/>
       <c r="AS25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8">
+        <v>24</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -2280,12 +2341,14 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9">
+        <v>25</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2328,12 +2391,14 @@
       <c r="AQ27" s="9"/>
       <c r="AS27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8">
+        <v>26</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -2376,12 +2441,14 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="9">
+        <v>27</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2424,12 +2491,14 @@
       <c r="AQ29" s="9"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8">
+        <v>28</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -2472,12 +2541,14 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9">
+        <v>29</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2520,12 +2591,14 @@
       <c r="AQ31" s="9"/>
       <c r="AS31" s="2"/>
     </row>
-    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="8">
+        <v>30</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2568,12 +2641,14 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9">
+        <v>31</v>
+      </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -2616,12 +2691,14 @@
       <c r="AQ33" s="9"/>
       <c r="AS33" s="2"/>
     </row>
-    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8">
+        <v>32</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -2664,12 +2741,14 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="9">
+        <v>33</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2712,12 +2791,14 @@
       <c r="AQ35" s="9"/>
       <c r="AS35" s="2"/>
     </row>
-    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="8">
+        <v>34</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -2760,12 +2841,14 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="9">
+        <v>35</v>
+      </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -2808,12 +2891,14 @@
       <c r="AQ37" s="9"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="8">
+        <v>36</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2856,12 +2941,14 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="9">
+        <v>37</v>
+      </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -2904,12 +2991,14 @@
       <c r="AQ39" s="9"/>
       <c r="AS39" s="2"/>
     </row>
-    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="8">
+        <v>38</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -2952,12 +3041,14 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="9">
+        <v>39</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -3000,12 +3091,14 @@
       <c r="AQ41" s="9"/>
       <c r="AS41" s="2"/>
     </row>
-    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="8">
+        <v>40</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -3048,12 +3141,14 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="9">
+        <v>41</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -3096,12 +3191,14 @@
       <c r="AQ43" s="9"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="8">
+        <v>42</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -3144,12 +3241,14 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="9">
+        <v>43</v>
+      </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3192,12 +3291,14 @@
       <c r="AQ45" s="9"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="8">
+        <v>44</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -3240,12 +3341,14 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="9">
+        <v>45</v>
+      </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -3288,12 +3391,14 @@
       <c r="AQ47" s="9"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8">
+        <v>46</v>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -3336,12 +3441,14 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="9">
+        <v>47</v>
+      </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3384,12 +3491,14 @@
       <c r="AQ49" s="9"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="8">
+        <v>48</v>
+      </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -3432,12 +3541,14 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="9">
+        <v>49</v>
+      </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3480,12 +3591,14 @@
       <c r="AQ51" s="9"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="8">
+        <v>50</v>
+      </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -3528,12 +3641,14 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="9">
+        <v>51</v>
+      </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -3576,12 +3691,14 @@
       <c r="AQ53" s="9"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="8">
+        <v>52</v>
+      </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -3624,12 +3741,14 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="9">
+        <v>53</v>
+      </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -3672,14 +3791,16 @@
       <c r="AQ55" s="9"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="8">
+        <v>54</v>
+      </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -3721,12 +3842,14 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="9">
+        <v>55</v>
+      </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -3768,12 +3891,14 @@
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
     </row>
-    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="8">
+        <v>56</v>
+      </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -3815,12 +3940,14 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="9">
+        <v>57</v>
+      </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -3862,12 +3989,14 @@
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
     </row>
-    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="8">
+        <v>58</v>
+      </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -3909,12 +4038,14 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="9">
+        <v>59</v>
+      </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -3956,12 +4087,14 @@
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
     </row>
-    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="8">
+        <v>60</v>
+      </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -4003,12 +4136,14 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="9">
+        <v>61</v>
+      </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -4050,12 +4185,14 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
     </row>
-    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="8"/>
+      <c r="C64" s="8">
+        <v>62</v>
+      </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -4097,12 +4234,14 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="9">
+        <v>63</v>
+      </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -4144,12 +4283,14 @@
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
     </row>
-    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18"/>
       <c r="B66" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="8"/>
+      <c r="C66" s="8">
+        <v>64</v>
+      </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -4191,12 +4332,14 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="9">
+        <v>65</v>
+      </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -4238,12 +4381,14 @@
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
     </row>
-    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="8"/>
+      <c r="C68" s="8">
+        <v>66</v>
+      </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -4285,12 +4430,14 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="9">
+        <v>67</v>
+      </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -4332,12 +4479,14 @@
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
     </row>
-    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="8"/>
+      <c r="C70" s="8">
+        <v>68</v>
+      </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -4379,12 +4528,14 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="9">
+        <v>69</v>
+      </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -4426,12 +4577,14 @@
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
     </row>
-    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="8"/>
+      <c r="C72" s="8">
+        <v>70</v>
+      </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -4473,12 +4626,14 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="9">
+        <v>71</v>
+      </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -4520,12 +4675,14 @@
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
     </row>
-    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="8"/>
+      <c r="C74" s="8">
+        <v>72</v>
+      </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -4567,12 +4724,14 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="9"/>
+      <c r="C75" s="9">
+        <v>73</v>
+      </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -4614,12 +4773,14 @@
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
     </row>
-    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18"/>
       <c r="B76" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="8"/>
+      <c r="C76" s="8">
+        <v>74</v>
+      </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -4661,12 +4822,14 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="9">
+        <v>75</v>
+      </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -4708,12 +4871,14 @@
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
     </row>
-    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="8">
+        <v>76</v>
+      </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -4755,12 +4920,14 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="9">
+        <v>77</v>
+      </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -4802,12 +4969,14 @@
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
     </row>
-    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="8"/>
+      <c r="C80" s="8">
+        <v>78</v>
+      </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -4849,12 +5018,14 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="9"/>
+      <c r="C81" s="9">
+        <v>79</v>
+      </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -4896,12 +5067,14 @@
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
     </row>
-    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="8"/>
+      <c r="C82" s="8">
+        <v>80</v>
+      </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -4943,12 +5116,14 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="9">
+        <v>81</v>
+      </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -4990,7 +5165,7 @@
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
     </row>
-    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5035,7 +5210,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>98</v>
       </c>
@@ -5084,7 +5259,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="7" t="s">
         <v>100</v>
@@ -5095,7 +5270,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>101</v>
@@ -5118,20 +5293,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.265625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="6" t="s">
         <v>95</v>
@@ -5260,7 +5435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
@@ -5310,7 +5485,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -5358,7 +5533,7 @@
       <c r="AQ3" s="9"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -5406,7 +5581,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -5454,7 +5629,7 @@
       <c r="AQ5" s="9"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -5502,7 +5677,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -5550,7 +5725,7 @@
       <c r="AQ7" s="9"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -5598,7 +5773,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -5646,7 +5821,7 @@
       <c r="AQ9" s="9"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
@@ -5694,7 +5869,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -5742,7 +5917,7 @@
       <c r="AQ11" s="9"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -5790,7 +5965,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -5838,7 +6013,7 @@
       <c r="AQ13" s="9"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>12</v>
@@ -5886,7 +6061,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -5934,7 +6109,7 @@
       <c r="AQ15" s="9"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -5982,7 +6157,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -6030,7 +6205,7 @@
       <c r="AQ17" s="9"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -6078,7 +6253,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -6126,7 +6301,7 @@
       <c r="AQ19" s="9"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
@@ -6174,7 +6349,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -6222,7 +6397,7 @@
       <c r="AQ21" s="9"/>
       <c r="AS21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>20</v>
@@ -6270,7 +6445,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -6318,7 +6493,7 @@
       <c r="AQ23" s="9"/>
       <c r="AS23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -6366,7 +6541,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -6414,7 +6589,7 @@
       <c r="AQ25" s="9"/>
       <c r="AS25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>27</v>
@@ -6462,7 +6637,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -6510,7 +6685,7 @@
       <c r="AQ27" s="9"/>
       <c r="AS27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>22</v>
@@ -6558,7 +6733,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -6606,7 +6781,7 @@
       <c r="AQ29" s="9"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
@@ -6654,7 +6829,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -6702,7 +6877,7 @@
       <c r="AQ31" s="9"/>
       <c r="AS31" s="2"/>
     </row>
-    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
@@ -6750,7 +6925,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -6798,7 +6973,7 @@
       <c r="AQ33" s="9"/>
       <c r="AS33" s="2"/>
     </row>
-    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
@@ -6846,7 +7021,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -6894,7 +7069,7 @@
       <c r="AQ35" s="9"/>
       <c r="AS35" s="2"/>
     </row>
-    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>23</v>
@@ -6942,7 +7117,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -6990,7 +7165,7 @@
       <c r="AQ37" s="9"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
@@ -7038,7 +7213,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -7086,7 +7261,7 @@
       <c r="AQ39" s="9"/>
       <c r="AS39" s="2"/>
     </row>
-    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
@@ -7134,7 +7309,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -7182,7 +7357,7 @@
       <c r="AQ41" s="9"/>
       <c r="AS41" s="2"/>
     </row>
-    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>41</v>
@@ -7230,7 +7405,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -7278,7 +7453,7 @@
       <c r="AQ43" s="9"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
@@ -7326,7 +7501,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -7374,7 +7549,7 @@
       <c r="AQ45" s="9"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>45</v>
@@ -7422,7 +7597,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -7470,7 +7645,7 @@
       <c r="AQ47" s="9"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>47</v>
@@ -7518,7 +7693,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -7566,7 +7741,7 @@
       <c r="AQ49" s="9"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>49</v>
@@ -7614,7 +7789,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -7662,7 +7837,7 @@
       <c r="AQ51" s="9"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>24</v>
@@ -7710,7 +7885,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -7758,7 +7933,7 @@
       <c r="AQ53" s="9"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="10" t="s">
         <v>52</v>
@@ -7806,7 +7981,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -7854,7 +8029,7 @@
       <c r="AQ55" s="9"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>97</v>
       </c>
@@ -7903,7 +8078,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -7950,7 +8125,7 @@
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
     </row>
-    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
         <v>30</v>
@@ -7997,7 +8172,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -8044,7 +8219,7 @@
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
     </row>
-    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>32</v>
@@ -8091,7 +8266,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -8138,7 +8313,7 @@
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
     </row>
-    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="10" t="s">
         <v>34</v>
@@ -8185,7 +8360,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -8232,7 +8407,7 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
     </row>
-    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="10" t="s">
         <v>23</v>
@@ -8279,7 +8454,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -8326,7 +8501,7 @@
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
     </row>
-    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18"/>
       <c r="B66" s="10" t="s">
         <v>37</v>
@@ -8373,7 +8548,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -8420,7 +8595,7 @@
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
     </row>
-    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="10" t="s">
         <v>39</v>
@@ -8467,7 +8642,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -8514,7 +8689,7 @@
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
     </row>
-    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="10" t="s">
         <v>41</v>
@@ -8561,7 +8736,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -8608,7 +8783,7 @@
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
     </row>
-    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="10" t="s">
         <v>43</v>
@@ -8655,7 +8830,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -8702,7 +8877,7 @@
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
     </row>
-    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="10" t="s">
         <v>45</v>
@@ -8749,7 +8924,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -8796,7 +8971,7 @@
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
     </row>
-    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18"/>
       <c r="B76" s="10" t="s">
         <v>47</v>
@@ -8843,7 +9018,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -8890,7 +9065,7 @@
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
     </row>
-    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="10" t="s">
         <v>49</v>
@@ -8937,7 +9112,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -8984,7 +9159,7 @@
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
     </row>
-    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="10" t="s">
         <v>24</v>
@@ -9031,7 +9206,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -9078,7 +9253,7 @@
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
     </row>
-    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="10" t="s">
         <v>52</v>
@@ -9125,7 +9300,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -9172,7 +9347,7 @@
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
     </row>
-    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -9217,7 +9392,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>98</v>
       </c>
@@ -9266,7 +9441,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="7" t="s">
         <v>100</v>
@@ -9277,14 +9452,14 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A55"/>
@@ -9296,20 +9471,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.265625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="6" t="s">
         <v>95</v>
@@ -9438,7 +9613,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
@@ -9488,7 +9663,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -9536,7 +9711,7 @@
       <c r="AQ3" s="9"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -9584,7 +9759,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -9632,7 +9807,7 @@
       <c r="AQ5" s="9"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -9680,7 +9855,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -9728,7 +9903,7 @@
       <c r="AQ7" s="9"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -9776,7 +9951,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -9824,7 +9999,7 @@
       <c r="AQ9" s="9"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
@@ -9872,7 +10047,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -9920,7 +10095,7 @@
       <c r="AQ11" s="9"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -9968,7 +10143,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -10016,7 +10191,7 @@
       <c r="AQ13" s="9"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>12</v>
@@ -10064,7 +10239,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -10112,7 +10287,7 @@
       <c r="AQ15" s="9"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -10160,7 +10335,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -10208,7 +10383,7 @@
       <c r="AQ17" s="9"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -10256,7 +10431,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -10304,7 +10479,7 @@
       <c r="AQ19" s="9"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
@@ -10352,7 +10527,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -10400,7 +10575,7 @@
       <c r="AQ21" s="9"/>
       <c r="AS21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>20</v>
@@ -10448,7 +10623,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -10496,7 +10671,7 @@
       <c r="AQ23" s="9"/>
       <c r="AS23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -10544,7 +10719,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -10592,7 +10767,7 @@
       <c r="AQ25" s="9"/>
       <c r="AS25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>27</v>
@@ -10640,7 +10815,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -10688,7 +10863,7 @@
       <c r="AQ27" s="9"/>
       <c r="AS27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>22</v>
@@ -10736,7 +10911,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -10784,7 +10959,7 @@
       <c r="AQ29" s="9"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
@@ -10832,7 +11007,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -10880,7 +11055,7 @@
       <c r="AQ31" s="9"/>
       <c r="AS31" s="2"/>
     </row>
-    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
@@ -10928,7 +11103,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -10976,7 +11151,7 @@
       <c r="AQ33" s="9"/>
       <c r="AS33" s="2"/>
     </row>
-    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
@@ -11024,7 +11199,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -11072,7 +11247,7 @@
       <c r="AQ35" s="9"/>
       <c r="AS35" s="2"/>
     </row>
-    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>23</v>
@@ -11120,7 +11295,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -11168,7 +11343,7 @@
       <c r="AQ37" s="9"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
@@ -11216,7 +11391,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -11264,7 +11439,7 @@
       <c r="AQ39" s="9"/>
       <c r="AS39" s="2"/>
     </row>
-    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
@@ -11312,7 +11487,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -11360,7 +11535,7 @@
       <c r="AQ41" s="9"/>
       <c r="AS41" s="2"/>
     </row>
-    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>41</v>
@@ -11408,7 +11583,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -11456,7 +11631,7 @@
       <c r="AQ43" s="9"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
@@ -11504,7 +11679,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -11552,7 +11727,7 @@
       <c r="AQ45" s="9"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>45</v>
@@ -11600,7 +11775,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -11648,7 +11823,7 @@
       <c r="AQ47" s="9"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>47</v>
@@ -11696,7 +11871,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -11744,7 +11919,7 @@
       <c r="AQ49" s="9"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>49</v>
@@ -11792,7 +11967,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -11840,7 +12015,7 @@
       <c r="AQ51" s="9"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>24</v>
@@ -11888,7 +12063,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -11936,7 +12111,7 @@
       <c r="AQ53" s="9"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="10" t="s">
         <v>52</v>
@@ -11984,7 +12159,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -12032,7 +12207,7 @@
       <c r="AQ55" s="9"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>97</v>
       </c>
@@ -12081,7 +12256,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -12128,7 +12303,7 @@
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
     </row>
-    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
         <v>30</v>
@@ -12175,7 +12350,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -12222,7 +12397,7 @@
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
     </row>
-    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>32</v>
@@ -12269,7 +12444,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -12316,7 +12491,7 @@
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
     </row>
-    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="10" t="s">
         <v>34</v>
@@ -12363,7 +12538,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -12410,7 +12585,7 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
     </row>
-    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="10" t="s">
         <v>23</v>
@@ -12457,7 +12632,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -12504,7 +12679,7 @@
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
     </row>
-    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18"/>
       <c r="B66" s="10" t="s">
         <v>37</v>
@@ -12551,7 +12726,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -12598,7 +12773,7 @@
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
     </row>
-    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="10" t="s">
         <v>39</v>
@@ -12645,7 +12820,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -12692,7 +12867,7 @@
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
     </row>
-    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="10" t="s">
         <v>41</v>
@@ -12739,7 +12914,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -12786,7 +12961,7 @@
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
     </row>
-    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="10" t="s">
         <v>43</v>
@@ -12833,7 +13008,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -12880,7 +13055,7 @@
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
     </row>
-    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="10" t="s">
         <v>45</v>
@@ -12927,7 +13102,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -12974,7 +13149,7 @@
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
     </row>
-    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18"/>
       <c r="B76" s="10" t="s">
         <v>47</v>
@@ -13021,7 +13196,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -13068,7 +13243,7 @@
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
     </row>
-    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="10" t="s">
         <v>49</v>
@@ -13115,7 +13290,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -13162,7 +13337,7 @@
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
     </row>
-    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="10" t="s">
         <v>24</v>
@@ -13209,7 +13384,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -13256,7 +13431,7 @@
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
     </row>
-    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="10" t="s">
         <v>52</v>
@@ -13303,7 +13478,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -13350,7 +13525,7 @@
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
     </row>
-    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -13395,7 +13570,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>98</v>
       </c>
@@ -13444,7 +13619,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="7" t="s">
         <v>100</v>
@@ -13455,14 +13630,14 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A55"/>
@@ -13474,20 +13649,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.265625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="6" t="s">
         <v>95</v>
@@ -13616,7 +13791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
@@ -13666,7 +13841,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -13714,7 +13889,7 @@
       <c r="AQ3" s="9"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -13762,7 +13937,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -13810,7 +13985,7 @@
       <c r="AQ5" s="9"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -13858,7 +14033,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -13906,7 +14081,7 @@
       <c r="AQ7" s="9"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -13954,7 +14129,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -14002,7 +14177,7 @@
       <c r="AQ9" s="9"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
@@ -14050,7 +14225,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -14098,7 +14273,7 @@
       <c r="AQ11" s="9"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -14146,7 +14321,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -14194,7 +14369,7 @@
       <c r="AQ13" s="9"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>12</v>
@@ -14242,7 +14417,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -14290,7 +14465,7 @@
       <c r="AQ15" s="9"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -14338,7 +14513,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -14386,7 +14561,7 @@
       <c r="AQ17" s="9"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -14434,7 +14609,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -14482,7 +14657,7 @@
       <c r="AQ19" s="9"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
@@ -14530,7 +14705,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -14578,7 +14753,7 @@
       <c r="AQ21" s="9"/>
       <c r="AS21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>20</v>
@@ -14626,7 +14801,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -14674,7 +14849,7 @@
       <c r="AQ23" s="9"/>
       <c r="AS23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -14722,7 +14897,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -14770,7 +14945,7 @@
       <c r="AQ25" s="9"/>
       <c r="AS25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>27</v>
@@ -14818,7 +14993,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -14866,7 +15041,7 @@
       <c r="AQ27" s="9"/>
       <c r="AS27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>22</v>
@@ -14914,7 +15089,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -14962,7 +15137,7 @@
       <c r="AQ29" s="9"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
@@ -15010,7 +15185,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -15058,7 +15233,7 @@
       <c r="AQ31" s="9"/>
       <c r="AS31" s="2"/>
     </row>
-    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
@@ -15106,7 +15281,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -15154,7 +15329,7 @@
       <c r="AQ33" s="9"/>
       <c r="AS33" s="2"/>
     </row>
-    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
@@ -15202,7 +15377,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -15250,7 +15425,7 @@
       <c r="AQ35" s="9"/>
       <c r="AS35" s="2"/>
     </row>
-    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>23</v>
@@ -15298,7 +15473,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -15346,7 +15521,7 @@
       <c r="AQ37" s="9"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
@@ -15394,7 +15569,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -15442,7 +15617,7 @@
       <c r="AQ39" s="9"/>
       <c r="AS39" s="2"/>
     </row>
-    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
@@ -15490,7 +15665,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -15538,7 +15713,7 @@
       <c r="AQ41" s="9"/>
       <c r="AS41" s="2"/>
     </row>
-    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>41</v>
@@ -15586,7 +15761,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -15634,7 +15809,7 @@
       <c r="AQ43" s="9"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
@@ -15682,7 +15857,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -15730,7 +15905,7 @@
       <c r="AQ45" s="9"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>45</v>
@@ -15778,7 +15953,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -15826,7 +16001,7 @@
       <c r="AQ47" s="9"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>47</v>
@@ -15874,7 +16049,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -15922,7 +16097,7 @@
       <c r="AQ49" s="9"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>49</v>
@@ -15970,7 +16145,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -16018,7 +16193,7 @@
       <c r="AQ51" s="9"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>24</v>
@@ -16066,7 +16241,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -16114,7 +16289,7 @@
       <c r="AQ53" s="9"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="10" t="s">
         <v>52</v>
@@ -16162,7 +16337,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -16210,7 +16385,7 @@
       <c r="AQ55" s="9"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>97</v>
       </c>
@@ -16259,7 +16434,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -16306,7 +16481,7 @@
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
     </row>
-    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
         <v>30</v>
@@ -16353,7 +16528,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -16400,7 +16575,7 @@
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
     </row>
-    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>32</v>
@@ -16447,7 +16622,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -16494,7 +16669,7 @@
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
     </row>
-    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="10" t="s">
         <v>34</v>
@@ -16541,7 +16716,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -16588,7 +16763,7 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
     </row>
-    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="10" t="s">
         <v>23</v>
@@ -16635,7 +16810,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -16682,7 +16857,7 @@
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
     </row>
-    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18"/>
       <c r="B66" s="10" t="s">
         <v>37</v>
@@ -16729,7 +16904,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -16776,7 +16951,7 @@
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
     </row>
-    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="10" t="s">
         <v>39</v>
@@ -16823,7 +16998,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -16870,7 +17045,7 @@
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
     </row>
-    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="10" t="s">
         <v>41</v>
@@ -16917,7 +17092,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -16964,7 +17139,7 @@
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
     </row>
-    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="10" t="s">
         <v>43</v>
@@ -17011,7 +17186,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -17058,7 +17233,7 @@
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
     </row>
-    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="10" t="s">
         <v>45</v>
@@ -17105,7 +17280,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -17152,7 +17327,7 @@
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
     </row>
-    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18"/>
       <c r="B76" s="10" t="s">
         <v>47</v>
@@ -17199,7 +17374,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -17246,7 +17421,7 @@
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
     </row>
-    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="10" t="s">
         <v>49</v>
@@ -17293,7 +17468,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -17340,7 +17515,7 @@
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
     </row>
-    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="10" t="s">
         <v>24</v>
@@ -17387,7 +17562,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -17434,7 +17609,7 @@
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
     </row>
-    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="10" t="s">
         <v>52</v>
@@ -17481,7 +17656,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -17528,7 +17703,7 @@
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
     </row>
-    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -17573,7 +17748,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>98</v>
       </c>
@@ -17622,7 +17797,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="7" t="s">
         <v>100</v>
@@ -17633,14 +17808,14 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A55"/>
@@ -17652,20 +17827,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.265625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="6" t="s">
         <v>95</v>
@@ -17794,7 +17969,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
@@ -17844,7 +18019,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -17892,7 +18067,7 @@
       <c r="AQ3" s="9"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -17940,7 +18115,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -17988,7 +18163,7 @@
       <c r="AQ5" s="9"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -18036,7 +18211,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -18084,7 +18259,7 @@
       <c r="AQ7" s="9"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -18132,7 +18307,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -18180,7 +18355,7 @@
       <c r="AQ9" s="9"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
@@ -18228,7 +18403,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -18276,7 +18451,7 @@
       <c r="AQ11" s="9"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -18324,7 +18499,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -18372,7 +18547,7 @@
       <c r="AQ13" s="9"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>12</v>
@@ -18420,7 +18595,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -18468,7 +18643,7 @@
       <c r="AQ15" s="9"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -18516,7 +18691,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -18564,7 +18739,7 @@
       <c r="AQ17" s="9"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -18612,7 +18787,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -18660,7 +18835,7 @@
       <c r="AQ19" s="9"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
@@ -18708,7 +18883,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -18756,7 +18931,7 @@
       <c r="AQ21" s="9"/>
       <c r="AS21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>20</v>
@@ -18804,7 +18979,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -18852,7 +19027,7 @@
       <c r="AQ23" s="9"/>
       <c r="AS23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -18900,7 +19075,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -18948,7 +19123,7 @@
       <c r="AQ25" s="9"/>
       <c r="AS25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>27</v>
@@ -18996,7 +19171,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -19044,7 +19219,7 @@
       <c r="AQ27" s="9"/>
       <c r="AS27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>22</v>
@@ -19092,7 +19267,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -19140,7 +19315,7 @@
       <c r="AQ29" s="9"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
@@ -19188,7 +19363,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -19236,7 +19411,7 @@
       <c r="AQ31" s="9"/>
       <c r="AS31" s="2"/>
     </row>
-    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
@@ -19284,7 +19459,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -19332,7 +19507,7 @@
       <c r="AQ33" s="9"/>
       <c r="AS33" s="2"/>
     </row>
-    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
@@ -19380,7 +19555,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -19428,7 +19603,7 @@
       <c r="AQ35" s="9"/>
       <c r="AS35" s="2"/>
     </row>
-    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>23</v>
@@ -19476,7 +19651,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -19524,7 +19699,7 @@
       <c r="AQ37" s="9"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
@@ -19572,7 +19747,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -19620,7 +19795,7 @@
       <c r="AQ39" s="9"/>
       <c r="AS39" s="2"/>
     </row>
-    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
@@ -19668,7 +19843,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -19716,7 +19891,7 @@
       <c r="AQ41" s="9"/>
       <c r="AS41" s="2"/>
     </row>
-    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>41</v>
@@ -19764,7 +19939,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -19812,7 +19987,7 @@
       <c r="AQ43" s="9"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
@@ -19860,7 +20035,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -19908,7 +20083,7 @@
       <c r="AQ45" s="9"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>45</v>
@@ -19956,7 +20131,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -20004,7 +20179,7 @@
       <c r="AQ47" s="9"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>47</v>
@@ -20052,7 +20227,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -20100,7 +20275,7 @@
       <c r="AQ49" s="9"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>49</v>
@@ -20148,7 +20323,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -20196,7 +20371,7 @@
       <c r="AQ51" s="9"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>24</v>
@@ -20244,7 +20419,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -20292,7 +20467,7 @@
       <c r="AQ53" s="9"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="10" t="s">
         <v>52</v>
@@ -20340,7 +20515,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -20388,7 +20563,7 @@
       <c r="AQ55" s="9"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>97</v>
       </c>
@@ -20437,7 +20612,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -20484,7 +20659,7 @@
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
     </row>
-    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
         <v>30</v>
@@ -20531,7 +20706,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -20578,7 +20753,7 @@
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
     </row>
-    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>32</v>
@@ -20625,7 +20800,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -20672,7 +20847,7 @@
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
     </row>
-    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="10" t="s">
         <v>34</v>
@@ -20719,7 +20894,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -20766,7 +20941,7 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
     </row>
-    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="10" t="s">
         <v>23</v>
@@ -20813,7 +20988,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -20860,7 +21035,7 @@
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
     </row>
-    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18"/>
       <c r="B66" s="10" t="s">
         <v>37</v>
@@ -20907,7 +21082,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -20954,7 +21129,7 @@
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
     </row>
-    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="10" t="s">
         <v>39</v>
@@ -21001,7 +21176,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -21048,7 +21223,7 @@
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
     </row>
-    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="10" t="s">
         <v>41</v>
@@ -21095,7 +21270,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -21142,7 +21317,7 @@
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
     </row>
-    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="10" t="s">
         <v>43</v>
@@ -21189,7 +21364,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -21236,7 +21411,7 @@
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
     </row>
-    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="10" t="s">
         <v>45</v>
@@ -21283,7 +21458,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -21330,7 +21505,7 @@
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
     </row>
-    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18"/>
       <c r="B76" s="10" t="s">
         <v>47</v>
@@ -21377,7 +21552,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -21424,7 +21599,7 @@
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
     </row>
-    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="10" t="s">
         <v>49</v>
@@ -21471,7 +21646,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -21518,7 +21693,7 @@
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
     </row>
-    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="10" t="s">
         <v>24</v>
@@ -21565,7 +21740,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -21612,7 +21787,7 @@
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
     </row>
-    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="10" t="s">
         <v>52</v>
@@ -21659,7 +21834,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -21706,7 +21881,7 @@
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
     </row>
-    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -21751,7 +21926,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>98</v>
       </c>
@@ -21800,7 +21975,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="7" t="s">
         <v>100</v>
@@ -21811,14 +21986,14 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A55"/>
@@ -21830,20 +22005,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.265625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="6" t="s">
         <v>95</v>
@@ -21972,7 +22147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
@@ -22022,7 +22197,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -22070,7 +22245,7 @@
       <c r="AQ3" s="9"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -22118,7 +22293,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -22166,7 +22341,7 @@
       <c r="AQ5" s="9"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -22214,7 +22389,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -22262,7 +22437,7 @@
       <c r="AQ7" s="9"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -22310,7 +22485,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -22358,7 +22533,7 @@
       <c r="AQ9" s="9"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
@@ -22406,7 +22581,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -22454,7 +22629,7 @@
       <c r="AQ11" s="9"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -22502,7 +22677,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -22550,7 +22725,7 @@
       <c r="AQ13" s="9"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>12</v>
@@ -22598,7 +22773,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -22646,7 +22821,7 @@
       <c r="AQ15" s="9"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -22694,7 +22869,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -22742,7 +22917,7 @@
       <c r="AQ17" s="9"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -22790,7 +22965,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -22838,7 +23013,7 @@
       <c r="AQ19" s="9"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
@@ -22886,7 +23061,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -22934,7 +23109,7 @@
       <c r="AQ21" s="9"/>
       <c r="AS21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>20</v>
@@ -22982,7 +23157,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -23030,7 +23205,7 @@
       <c r="AQ23" s="9"/>
       <c r="AS23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -23078,7 +23253,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -23126,7 +23301,7 @@
       <c r="AQ25" s="9"/>
       <c r="AS25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>27</v>
@@ -23174,7 +23349,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -23222,7 +23397,7 @@
       <c r="AQ27" s="9"/>
       <c r="AS27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>22</v>
@@ -23270,7 +23445,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -23318,7 +23493,7 @@
       <c r="AQ29" s="9"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
@@ -23366,7 +23541,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -23414,7 +23589,7 @@
       <c r="AQ31" s="9"/>
       <c r="AS31" s="2"/>
     </row>
-    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
@@ -23462,7 +23637,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -23510,7 +23685,7 @@
       <c r="AQ33" s="9"/>
       <c r="AS33" s="2"/>
     </row>
-    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
@@ -23558,7 +23733,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -23606,7 +23781,7 @@
       <c r="AQ35" s="9"/>
       <c r="AS35" s="2"/>
     </row>
-    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>23</v>
@@ -23654,7 +23829,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -23702,7 +23877,7 @@
       <c r="AQ37" s="9"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
@@ -23750,7 +23925,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -23798,7 +23973,7 @@
       <c r="AQ39" s="9"/>
       <c r="AS39" s="2"/>
     </row>
-    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
@@ -23846,7 +24021,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -23894,7 +24069,7 @@
       <c r="AQ41" s="9"/>
       <c r="AS41" s="2"/>
     </row>
-    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>41</v>
@@ -23942,7 +24117,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -23990,7 +24165,7 @@
       <c r="AQ43" s="9"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
@@ -24038,7 +24213,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -24086,7 +24261,7 @@
       <c r="AQ45" s="9"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>45</v>
@@ -24134,7 +24309,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -24182,7 +24357,7 @@
       <c r="AQ47" s="9"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>47</v>
@@ -24230,7 +24405,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -24278,7 +24453,7 @@
       <c r="AQ49" s="9"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>49</v>
@@ -24326,7 +24501,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -24374,7 +24549,7 @@
       <c r="AQ51" s="9"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>24</v>
@@ -24422,7 +24597,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -24470,7 +24645,7 @@
       <c r="AQ53" s="9"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="10" t="s">
         <v>52</v>
@@ -24518,7 +24693,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -24566,7 +24741,7 @@
       <c r="AQ55" s="9"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>97</v>
       </c>
@@ -24615,7 +24790,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -24662,7 +24837,7 @@
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
     </row>
-    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
         <v>30</v>
@@ -24709,7 +24884,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -24756,7 +24931,7 @@
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
     </row>
-    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>32</v>
@@ -24803,7 +24978,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -24850,7 +25025,7 @@
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
     </row>
-    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="10" t="s">
         <v>34</v>
@@ -24897,7 +25072,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -24944,7 +25119,7 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
     </row>
-    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="10" t="s">
         <v>23</v>
@@ -24991,7 +25166,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -25038,7 +25213,7 @@
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
     </row>
-    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18"/>
       <c r="B66" s="10" t="s">
         <v>37</v>
@@ -25085,7 +25260,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -25132,7 +25307,7 @@
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
     </row>
-    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="10" t="s">
         <v>39</v>
@@ -25179,7 +25354,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -25226,7 +25401,7 @@
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
     </row>
-    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="10" t="s">
         <v>41</v>
@@ -25273,7 +25448,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -25320,7 +25495,7 @@
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
     </row>
-    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="10" t="s">
         <v>43</v>
@@ -25367,7 +25542,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -25414,7 +25589,7 @@
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
     </row>
-    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="10" t="s">
         <v>45</v>
@@ -25461,7 +25636,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -25508,7 +25683,7 @@
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
     </row>
-    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18"/>
       <c r="B76" s="10" t="s">
         <v>47</v>
@@ -25555,7 +25730,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -25602,7 +25777,7 @@
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
     </row>
-    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="10" t="s">
         <v>49</v>
@@ -25649,7 +25824,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -25696,7 +25871,7 @@
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
     </row>
-    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="10" t="s">
         <v>24</v>
@@ -25743,7 +25918,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -25790,7 +25965,7 @@
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
     </row>
-    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="10" t="s">
         <v>52</v>
@@ -25837,7 +26012,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -25884,7 +26059,7 @@
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
     </row>
-    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -25929,7 +26104,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>98</v>
       </c>
@@ -25978,7 +26153,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="7" t="s">
         <v>100</v>
@@ -25989,14 +26164,14 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A55"/>
@@ -26008,20 +26183,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AS89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="1" customWidth="1"/>
-    <col min="3" max="43" width="6.26953125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="43" width="6.265625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="6" t="s">
         <v>95</v>
@@ -26150,7 +26325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>96</v>
       </c>
@@ -26200,7 +26375,7 @@
       <c r="AQ2" s="8"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -26248,7 +26423,7 @@
       <c r="AQ3" s="9"/>
       <c r="AS3" s="2"/>
     </row>
-    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -26296,7 +26471,7 @@
       <c r="AQ4" s="8"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -26344,7 +26519,7 @@
       <c r="AQ5" s="9"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -26392,7 +26567,7 @@
       <c r="AQ6" s="8"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -26440,7 +26615,7 @@
       <c r="AQ7" s="9"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -26488,7 +26663,7 @@
       <c r="AQ8" s="8"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -26536,7 +26711,7 @@
       <c r="AQ9" s="9"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
@@ -26584,7 +26759,7 @@
       <c r="AQ10" s="8"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -26632,7 +26807,7 @@
       <c r="AQ11" s="9"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -26680,7 +26855,7 @@
       <c r="AQ12" s="8"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>11</v>
@@ -26728,7 +26903,7 @@
       <c r="AQ13" s="9"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>12</v>
@@ -26776,7 +26951,7 @@
       <c r="AQ14" s="8"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>13</v>
@@ -26824,7 +26999,7 @@
       <c r="AQ15" s="9"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>14</v>
@@ -26872,7 +27047,7 @@
       <c r="AQ16" s="8"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>15</v>
@@ -26920,7 +27095,7 @@
       <c r="AQ17" s="9"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -26968,7 +27143,7 @@
       <c r="AQ18" s="8"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
@@ -27016,7 +27191,7 @@
       <c r="AQ19" s="9"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
@@ -27064,7 +27239,7 @@
       <c r="AQ20" s="8"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -27112,7 +27287,7 @@
       <c r="AQ21" s="9"/>
       <c r="AS21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>20</v>
@@ -27160,7 +27335,7 @@
       <c r="AQ22" s="8"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -27208,7 +27383,7 @@
       <c r="AQ23" s="9"/>
       <c r="AS23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -27256,7 +27431,7 @@
       <c r="AQ24" s="8"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -27304,7 +27479,7 @@
       <c r="AQ25" s="9"/>
       <c r="AS25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>27</v>
@@ -27352,7 +27527,7 @@
       <c r="AQ26" s="8"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>28</v>
@@ -27400,7 +27575,7 @@
       <c r="AQ27" s="9"/>
       <c r="AS27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>22</v>
@@ -27448,7 +27623,7 @@
       <c r="AQ28" s="8"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>29</v>
@@ -27496,7 +27671,7 @@
       <c r="AQ29" s="9"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>30</v>
@@ -27544,7 +27719,7 @@
       <c r="AQ30" s="8"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>31</v>
@@ -27592,7 +27767,7 @@
       <c r="AQ31" s="9"/>
       <c r="AS31" s="2"/>
     </row>
-    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>32</v>
@@ -27640,7 +27815,7 @@
       <c r="AQ32" s="8"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -27688,7 +27863,7 @@
       <c r="AQ33" s="9"/>
       <c r="AS33" s="2"/>
     </row>
-    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
@@ -27736,7 +27911,7 @@
       <c r="AQ34" s="8"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>35</v>
@@ -27784,7 +27959,7 @@
       <c r="AQ35" s="9"/>
       <c r="AS35" s="2"/>
     </row>
-    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>23</v>
@@ -27832,7 +28007,7 @@
       <c r="AQ36" s="8"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>36</v>
@@ -27880,7 +28055,7 @@
       <c r="AQ37" s="9"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>37</v>
@@ -27928,7 +28103,7 @@
       <c r="AQ38" s="8"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17"/>
       <c r="B39" s="10" t="s">
         <v>38</v>
@@ -27976,7 +28151,7 @@
       <c r="AQ39" s="9"/>
       <c r="AS39" s="2"/>
     </row>
-    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>39</v>
@@ -28024,7 +28199,7 @@
       <c r="AQ40" s="8"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>40</v>
@@ -28072,7 +28247,7 @@
       <c r="AQ41" s="9"/>
       <c r="AS41" s="2"/>
     </row>
-    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>41</v>
@@ -28120,7 +28295,7 @@
       <c r="AQ42" s="8"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>42</v>
@@ -28168,7 +28343,7 @@
       <c r="AQ43" s="9"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>43</v>
@@ -28216,7 +28391,7 @@
       <c r="AQ44" s="8"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>44</v>
@@ -28264,7 +28439,7 @@
       <c r="AQ45" s="9"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>45</v>
@@ -28312,7 +28487,7 @@
       <c r="AQ46" s="8"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>46</v>
@@ -28360,7 +28535,7 @@
       <c r="AQ47" s="9"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>47</v>
@@ -28408,7 +28583,7 @@
       <c r="AQ48" s="8"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>48</v>
@@ -28456,7 +28631,7 @@
       <c r="AQ49" s="9"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>49</v>
@@ -28504,7 +28679,7 @@
       <c r="AQ50" s="8"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>50</v>
@@ -28552,7 +28727,7 @@
       <c r="AQ51" s="9"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>24</v>
@@ -28600,7 +28775,7 @@
       <c r="AQ52" s="8"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>51</v>
@@ -28648,7 +28823,7 @@
       <c r="AQ53" s="9"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="B54" s="10" t="s">
         <v>52</v>
@@ -28696,7 +28871,7 @@
       <c r="AQ54" s="8"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17"/>
       <c r="B55" s="10" t="s">
         <v>53</v>
@@ -28744,7 +28919,7 @@
       <c r="AQ55" s="9"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>97</v>
       </c>
@@ -28793,7 +28968,7 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="8"/>
     </row>
-    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="10" t="s">
         <v>29</v>
@@ -28840,7 +29015,7 @@
       <c r="AP57" s="9"/>
       <c r="AQ57" s="9"/>
     </row>
-    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
         <v>30</v>
@@ -28887,7 +29062,7 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="8"/>
     </row>
-    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
         <v>31</v>
@@ -28934,7 +29109,7 @@
       <c r="AP59" s="9"/>
       <c r="AQ59" s="9"/>
     </row>
-    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>32</v>
@@ -28981,7 +29156,7 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="8"/>
     </row>
-    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>33</v>
@@ -29028,7 +29203,7 @@
       <c r="AP61" s="9"/>
       <c r="AQ61" s="9"/>
     </row>
-    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
       <c r="B62" s="10" t="s">
         <v>34</v>
@@ -29075,7 +29250,7 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="8"/>
     </row>
-    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="10" t="s">
         <v>35</v>
@@ -29122,7 +29297,7 @@
       <c r="AP63" s="9"/>
       <c r="AQ63" s="9"/>
     </row>
-    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18"/>
       <c r="B64" s="10" t="s">
         <v>23</v>
@@ -29169,7 +29344,7 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="10" t="s">
         <v>36</v>
@@ -29216,7 +29391,7 @@
       <c r="AP65" s="9"/>
       <c r="AQ65" s="9"/>
     </row>
-    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18"/>
       <c r="B66" s="10" t="s">
         <v>37</v>
@@ -29263,7 +29438,7 @@
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
     </row>
-    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="10" t="s">
         <v>38</v>
@@ -29310,7 +29485,7 @@
       <c r="AP67" s="9"/>
       <c r="AQ67" s="9"/>
     </row>
-    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18"/>
       <c r="B68" s="10" t="s">
         <v>39</v>
@@ -29357,7 +29532,7 @@
       <c r="AP68" s="8"/>
       <c r="AQ68" s="8"/>
     </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="10" t="s">
         <v>40</v>
@@ -29404,7 +29579,7 @@
       <c r="AP69" s="9"/>
       <c r="AQ69" s="9"/>
     </row>
-    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
       <c r="B70" s="10" t="s">
         <v>41</v>
@@ -29451,7 +29626,7 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="8"/>
     </row>
-    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="10" t="s">
         <v>42</v>
@@ -29498,7 +29673,7 @@
       <c r="AP71" s="9"/>
       <c r="AQ71" s="9"/>
     </row>
-    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
       <c r="B72" s="10" t="s">
         <v>43</v>
@@ -29545,7 +29720,7 @@
       <c r="AP72" s="8"/>
       <c r="AQ72" s="8"/>
     </row>
-    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="10" t="s">
         <v>44</v>
@@ -29592,7 +29767,7 @@
       <c r="AP73" s="9"/>
       <c r="AQ73" s="9"/>
     </row>
-    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18"/>
       <c r="B74" s="10" t="s">
         <v>45</v>
@@ -29639,7 +29814,7 @@
       <c r="AP74" s="8"/>
       <c r="AQ74" s="8"/>
     </row>
-    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18"/>
       <c r="B75" s="10" t="s">
         <v>46</v>
@@ -29686,7 +29861,7 @@
       <c r="AP75" s="9"/>
       <c r="AQ75" s="9"/>
     </row>
-    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18"/>
       <c r="B76" s="10" t="s">
         <v>47</v>
@@ -29733,7 +29908,7 @@
       <c r="AP76" s="8"/>
       <c r="AQ76" s="8"/>
     </row>
-    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18"/>
       <c r="B77" s="10" t="s">
         <v>48</v>
@@ -29780,7 +29955,7 @@
       <c r="AP77" s="9"/>
       <c r="AQ77" s="9"/>
     </row>
-    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18"/>
       <c r="B78" s="10" t="s">
         <v>49</v>
@@ -29827,7 +30002,7 @@
       <c r="AP78" s="8"/>
       <c r="AQ78" s="8"/>
     </row>
-    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18"/>
       <c r="B79" s="10" t="s">
         <v>50</v>
@@ -29874,7 +30049,7 @@
       <c r="AP79" s="9"/>
       <c r="AQ79" s="9"/>
     </row>
-    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18"/>
       <c r="B80" s="10" t="s">
         <v>24</v>
@@ -29921,7 +30096,7 @@
       <c r="AP80" s="8"/>
       <c r="AQ80" s="8"/>
     </row>
-    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="18"/>
       <c r="B81" s="10" t="s">
         <v>51</v>
@@ -29968,7 +30143,7 @@
       <c r="AP81" s="9"/>
       <c r="AQ81" s="9"/>
     </row>
-    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
       <c r="B82" s="10" t="s">
         <v>52</v>
@@ -30015,7 +30190,7 @@
       <c r="AP82" s="8"/>
       <c r="AQ82" s="8"/>
     </row>
-    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="18"/>
       <c r="B83" s="10" t="s">
         <v>53</v>
@@ -30062,7 +30237,7 @@
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
     </row>
-    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -30107,7 +30282,7 @@
       <c r="AP84" s="7"/>
       <c r="AQ84" s="7"/>
     </row>
-    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>98</v>
       </c>
@@ -30156,7 +30331,7 @@
       <c r="AP85" s="7"/>
       <c r="AQ85" s="7"/>
     </row>
-    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="7" t="s">
         <v>100</v>
@@ -30167,14 +30342,14 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A55"/>
